--- a/Descargas/R15_Juzgado De Letras Y Garantia De Pozo Almonte_Garantia_Ingresos Causas Por Rol_2018-Abríl.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Pozo Almonte_Garantia_Ingresos Causas Por Rol_2018-Abríl.xlsx
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
